--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FIH\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF977F2-B7DB-403D-8CEA-78333ECA07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDEAD89-090A-4BC3-A402-310EC00F4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +61,17 @@
   </si>
   <si>
     <t>batch_size=8, epoch_n = 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretrain model</t>
+  </si>
+  <si>
+    <t>training + pretrain model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -999,12 +1011,17 @@
         <v>0.18534999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.32E-3</v>
       </c>
@@ -1014,8 +1031,14 @@
       <c r="C66">
         <v>5.21E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.943E-2</v>
       </c>
@@ -1025,21 +1048,141 @@
       <c r="C67">
         <v>2.316E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f>GEOMEAN(A66:C69)</f>
+        <v>4.3458940716087142E-2</v>
+      </c>
+      <c r="F67">
+        <f>STDEV(A66:C69)</f>
+        <v>0.16516024418910882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.31840000000000002</v>
       </c>
       <c r="B68">
         <v>3.8609999999999998E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>0.2873</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.2370000000000001E-2</v>
       </c>
       <c r="B69">
         <v>2.223E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.51241999999999999</v>
+      </c>
+      <c r="E69">
+        <f xml:space="preserve"> MIN(A66:C69)</f>
+        <v>2.32E-3</v>
+      </c>
+      <c r="F69">
+        <f>MAX(A66:C69)</f>
+        <v>0.51241999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.47E-2</v>
+      </c>
+      <c r="B72">
+        <v>3.4119999999999998E-2</v>
+      </c>
+      <c r="C72">
+        <v>1.8270000000000002E-2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="B73">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="C73">
+        <v>1.1469999999999999E-2</v>
+      </c>
+      <c r="E73">
+        <f>GEOMEAN(A72:C75)</f>
+        <v>2.2422033620120688E-2</v>
+      </c>
+      <c r="F73">
+        <f>STDEV(A72:C75)</f>
+        <v>2.418573939641943E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1.393E-2</v>
+      </c>
+      <c r="B74">
+        <v>2.2839999999999999E-2</v>
+      </c>
+      <c r="C74">
+        <v>9.6479999999999996E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="B75">
+        <v>2.257E-2</v>
+      </c>
+      <c r="C75">
+        <v>4.7710000000000002E-2</v>
+      </c>
+      <c r="E75">
+        <f xml:space="preserve"> MIN(A72:C75)</f>
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="F75">
+        <f>MAX(A72:C75)</f>
+        <v>9.6479999999999996E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3.8519999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.23863000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FIH\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDEAD89-090A-4BC3-A402-310EC00F4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5430C9-CE98-43A3-B8CC-53E1B2EA4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>batch_size=8, epoch_n = 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>training</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +67,17 @@
   </si>
   <si>
     <t>training + pretrain model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=8, epoch_n = 50</t>
+  </si>
+  <si>
+    <t>batch_size=min(256, 8*(i+1)), epoch_n = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=min(1024, 8*(i+1)), epoch_n = 500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,6 +592,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>32043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4277103F-8EA6-4324-8B93-D7296E5656A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4541520" cy="222543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -849,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1011,17 +1066,23 @@
         <v>0.18534999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+      <c r="O65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.32E-3</v>
       </c>
@@ -1037,8 +1098,26 @@
       <c r="F66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>2.47E-2</v>
+      </c>
+      <c r="I66">
+        <v>3.4119999999999998E-2</v>
+      </c>
+      <c r="J66">
+        <v>1.8270000000000002E-2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>3.8519999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.943E-2</v>
       </c>
@@ -1056,8 +1135,28 @@
         <f>STDEV(A66:C69)</f>
         <v>0.16516024418910882</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="I67">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="J67">
+        <v>1.1469999999999999E-2</v>
+      </c>
+      <c r="L67">
+        <f>GEOMEAN(H66:J69)</f>
+        <v>2.2422033620120688E-2</v>
+      </c>
+      <c r="M67">
+        <f>STDEV(H66:J69)</f>
+        <v>2.418573939641943E-2</v>
+      </c>
+      <c r="O67">
+        <v>0.23863000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.31840000000000002</v>
       </c>
@@ -1073,8 +1172,26 @@
       <c r="F68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>1.393E-2</v>
+      </c>
+      <c r="I68">
+        <v>2.2839999999999999E-2</v>
+      </c>
+      <c r="J68">
+        <v>9.6479999999999996E-2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <v>0.61575000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.2370000000000001E-2</v>
       </c>
@@ -1092,97 +1209,191 @@
         <f>MAX(A66:C69)</f>
         <v>0.51241999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="I69">
+        <v>2.257E-2</v>
+      </c>
+      <c r="J69">
+        <v>4.7710000000000002E-2</v>
+      </c>
+      <c r="L69">
+        <f xml:space="preserve"> MIN(H66:J69)</f>
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="M69">
+        <f>MAX(H66:J69)</f>
+        <v>9.6479999999999996E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>2.47E-2</v>
-      </c>
-      <c r="B72">
-        <v>3.4119999999999998E-2</v>
-      </c>
-      <c r="C72">
-        <v>1.8270000000000002E-2</v>
-      </c>
-      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2.401E-2</v>
+      </c>
+      <c r="B73">
+        <v>5.8700000000000002E-3</v>
+      </c>
+      <c r="C73">
+        <v>6.43E-3</v>
+      </c>
+      <c r="E73" t="s">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>1.7219999999999999E-2</v>
-      </c>
-      <c r="B73">
-        <v>3.4250000000000003E-2</v>
-      </c>
-      <c r="C73">
-        <v>1.1469999999999999E-2</v>
-      </c>
-      <c r="E73">
-        <f>GEOMEAN(A72:C75)</f>
-        <v>2.2422033620120688E-2</v>
-      </c>
-      <c r="F73">
-        <f>STDEV(A72:C75)</f>
-        <v>2.418573939641943E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>2.359E-2</v>
+      </c>
+      <c r="I73">
+        <v>1.7069999999999998E-2</v>
+      </c>
+      <c r="J73">
+        <v>4.7070000000000001E-2</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1.393E-2</v>
+        <v>1.136E-2</v>
       </c>
       <c r="B74">
-        <v>2.2839999999999999E-2</v>
+        <v>2.0129999999999999E-2</v>
       </c>
       <c r="C74">
-        <v>9.6479999999999996E-2</v>
-      </c>
-      <c r="E74" t="s">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="E74">
+        <f>GEOMEAN(A73:C76)</f>
+        <v>1.6357978399344844E-2</v>
+      </c>
+      <c r="F74">
+        <f>STDEV(A73:C76)</f>
+        <v>0.1155873717118026</v>
+      </c>
+      <c r="H74">
+        <v>1.507E-2</v>
+      </c>
+      <c r="I74">
+        <v>2.8920000000000001E-2</v>
+      </c>
+      <c r="J74">
+        <v>2.545E-2</v>
+      </c>
+      <c r="L74">
+        <f>GEOMEAN(H73:J76)</f>
+        <v>1.6661663326715283E-2</v>
+      </c>
+      <c r="M74">
+        <f>STDEV(H73:J76)</f>
+        <v>4.4443660786336089E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="B75">
+        <v>5.96E-3</v>
+      </c>
+      <c r="C75">
+        <v>0.15028</v>
+      </c>
+      <c r="E75" t="s">
         <v>3</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>4.6899999999999997E-3</v>
-      </c>
-      <c r="B75">
-        <v>2.257E-2</v>
-      </c>
-      <c r="C75">
-        <v>4.7710000000000002E-2</v>
-      </c>
-      <c r="E75">
-        <f xml:space="preserve"> MIN(A72:C75)</f>
-        <v>4.6899999999999997E-3</v>
-      </c>
-      <c r="F75">
-        <f>MAX(A72:C75)</f>
-        <v>9.6479999999999996E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="H75">
+        <v>1.048E-2</v>
+      </c>
+      <c r="I75">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J75">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>3</v>
+      </c>
+      <c r="M75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.517E-2</v>
+      </c>
+      <c r="B76">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="C76">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="E76">
+        <f xml:space="preserve"> MIN(A73:C76)</f>
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="F76">
+        <f>MAX(A73:C76)</f>
+        <v>0.40011999999999998</v>
+      </c>
+      <c r="H76">
+        <v>0.16616</v>
+      </c>
+      <c r="I76">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="J76">
+        <v>1.4659999999999999E-2</v>
+      </c>
+      <c r="L76">
+        <f xml:space="preserve"> MIN(H73:J76)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="M76">
+        <f>MAX(H73:J76)</f>
+        <v>0.16616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>3.8519999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.23863000000000001</v>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>2.2159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>4.6699999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1191,4 +1402,118 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51A34D-8E09-4FE1-95A4-69D62326000E}">
+  <dimension ref="A2:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.4309999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>7.1260000000000004E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.8420000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.18190999999999999</v>
+      </c>
+      <c r="J4">
+        <f>GEOMEAN(F3:H6)</f>
+        <v>4.0308820293427139E-2</v>
+      </c>
+      <c r="K4">
+        <f>STDEV(F3:H6)</f>
+        <v>0.19843031063266967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.5669999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.62053000000000003</v>
+      </c>
+      <c r="G5">
+        <v>3.4970000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.094E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.421E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <f xml:space="preserve"> MIN(F3:H6)</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="K6">
+        <f>MAX(F3:H6)</f>
+        <v>0.62053000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7.7410000000000007E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.421E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.0109999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5430C9-CE98-43A3-B8CC-53E1B2EA4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D4225-5235-499B-B1C3-837A292B96B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>batch_size=min(1024, 8*(i+1)), epoch_n = 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=min(1024, 8*(i+1)), epoch_n = 300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,6 +593,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>169751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0091B47-5FB0-0191-4D12-ED8C19F672C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60961" y="16123920"/>
+          <a:ext cx="3078480" cy="2143331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -904,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1390,10 +1438,139 @@
       <c r="H80">
         <v>2.2159999999999999E-2</v>
       </c>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>2.4070000000000001E-2</v>
+      </c>
+      <c r="J80">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H81">
         <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="I81">
+        <v>2.2270000000000002E-2</v>
+      </c>
+      <c r="J81">
+        <v>1.238E-2</v>
+      </c>
+      <c r="L81">
+        <f>GEOMEAN(H80:J83)</f>
+        <v>1.5121668562504265E-2</v>
+      </c>
+      <c r="M81">
+        <f>STDEV(H80:J83)</f>
+        <v>2.1125904176454255E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>1.7590000000000001E-2</v>
+      </c>
+      <c r="I82">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="J82">
+        <v>1.523E-2</v>
+      </c>
+      <c r="L82" t="s">
+        <v>3</v>
+      </c>
+      <c r="M82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>3.9489999999999997E-2</v>
+      </c>
+      <c r="I83">
+        <v>6.13E-3</v>
+      </c>
+      <c r="J83">
+        <v>1.389E-2</v>
+      </c>
+      <c r="L83">
+        <f xml:space="preserve"> MIN(H80:J83)</f>
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="M83">
+        <f>MAX(H80:J83)</f>
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>5.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>7.3600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.11173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.474E-2</v>
+      </c>
+      <c r="B105">
+        <v>5.2319999999999998E-2</v>
+      </c>
+      <c r="H105">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.7430000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FIH\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D4225-5235-499B-B1C3-837A292B96B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61FA32-6ACB-4370-8592-50EBFDAD7B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Result ML" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +692,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17291</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF11A2D-CECD-4B95-9A6C-61E459366AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="213361"/>
+          <a:ext cx="3271031" cy="2964180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541633</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73951EC-2A14-41E1-A93C-89F90F69E92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337560" y="213360"/>
+          <a:ext cx="2690473" cy="2964180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -954,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1682,7 @@
   <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1693,4 +1789,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD7D86-AA89-470A-826F-E1BFCA091B11}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>2.9299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>3.5599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>2.401E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FIH\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61FA32-6ACB-4370-8592-50EBFDAD7B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC7CEB5-E124-4B81-A653-16629A99162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
     <sheet name="Result ML" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +85,10 @@
     <t>batch_size=min(1024, 8*(i+1)), epoch_n = 300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>卡在local minima</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -134,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -782,6 +785,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8131FE44-3C8C-0B87-9F08-65DD0CE9BD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6073141" y="223550"/>
+          <a:ext cx="4632960" cy="919625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432D2ECC-6377-8383-200F-5F084FB07C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065521" y="1229612"/>
+          <a:ext cx="4648199" cy="770767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1050,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80:M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1793,43 +1884,197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD7D86-AA89-470A-826F-E1BFCA091B11}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="9" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="N22" t="s">
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="B20">
+        <v>0.51990999999999998</v>
+      </c>
+      <c r="C20">
+        <v>2.33E-3</v>
+      </c>
+      <c r="H20">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="I20">
+        <v>3.1280000000000002E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="L20">
+        <f>GEOMEAN(H19:J22)</f>
+        <v>1.4312294226929314E-3</v>
+      </c>
+      <c r="M20">
+        <f>STDEV(H19:J22)</f>
+        <v>1.18284626126043E-2</v>
+      </c>
+      <c r="P20">
+        <v>8.1600000000000006E-3</v>
+      </c>
+      <c r="Q20">
+        <v>9.8099999999999993E-3</v>
+      </c>
+      <c r="R20">
+        <v>5.9800000000000001E-3</v>
+      </c>
+      <c r="T20">
+        <f>GEOMEAN(P19:R22)</f>
+        <v>5.4122872210219334E-3</v>
+      </c>
+      <c r="U20">
+        <f>STDEV(P19:R22)</f>
+        <v>9.4548987890464026E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="B21">
+        <v>8.8900000000000003E-3</v>
+      </c>
+      <c r="H21">
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="J21">
+        <v>2.7E-4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="Q21">
+        <v>1.669E-2</v>
+      </c>
+      <c r="R21">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="B22">
+        <v>2.4459999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>2.401E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J22">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="L22">
+        <f xml:space="preserve"> MIN(H19:J22)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M22">
+        <f>MAX(H19:J22)</f>
+        <v>3.1280000000000002E-2</v>
+      </c>
+      <c r="P22">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="Q22">
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="R22">
+        <v>3.0339999999999999E-2</v>
+      </c>
+      <c r="T22">
+        <f xml:space="preserve"> MIN(P19:R22)</f>
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="U22">
+        <f>MAX(P19:R22)</f>
+        <v>3.0339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="B23">
+        <v>6.1999999999999998E-3</v>
+      </c>
       <c r="H23">
-        <v>2.9299999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H24">
-        <v>3.5599999999999998E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H25">
-        <v>2.401E-2</v>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I23">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="J23">
+        <v>1.57E-3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>8.3199999999999993E-3</v>
+      </c>
+      <c r="Q23">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="R23">
+        <v>6.9300000000000004E-3</v>
       </c>
     </row>
   </sheetData>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\Documents\FIH\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC7CEB5-E124-4B81-A653-16629A99162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
     <sheet name="Result ML" sheetId="3" r:id="rId3"/>
+    <sheet name="DE paper" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,11 +89,19 @@
     <t>卡在local minima</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>In these tests, a recombination factor of 0.7 and a mutation factor of 0.5 were established.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cr = 0.7, F = 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1138,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -1769,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51A34D-8E09-4FE1-95A4-69D62326000E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1883,10 +1891,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD7D86-AA89-470A-826F-E1BFCA091B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2083,4 +2091,31 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\Documents\FIH\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16620ED6-66F4-48C2-A910-297F606499BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
-    <sheet name="Result ML" sheetId="3" r:id="rId3"/>
-    <sheet name="DE paper" sheetId="4" r:id="rId4"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test4" sheetId="5" r:id="rId4"/>
+    <sheet name="DE paper" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,30 +655,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>32043</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>16803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
+        <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4277103F-8EA6-4324-8B93-D7296E5656A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DEE773-B2DD-4D60-9859-401DAB47E3D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,14 +682,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="20749260"/>
           <a:ext cx="4541520" cy="222543"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -703,7 +702,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -873,6 +872,187 @@
         <a:xfrm>
           <a:off x="6065521" y="1229612"/>
           <a:ext cx="4648199" cy="770767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503533</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A976930-0749-4039-9CB1-2DFA58541A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299460" y="228600"/>
+          <a:ext cx="2690473" cy="2964180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>243841</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C49CE54-0447-4F8A-9145-8FB561EABBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035041" y="238790"/>
+          <a:ext cx="4632960" cy="919625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541021</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03CD896-1C72-499C-9CAE-CE5EE3F1540F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027421" y="1244852"/>
+          <a:ext cx="4648199" cy="770767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>529394</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31134DB9-9FAE-45D9-B744-34DA184C39F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="3272594" cy="2712720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,11 +1326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80:M83"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1701,12 +1881,12 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -1714,27 +1894,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>7.3600000000000002E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.11173</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -1742,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.474E-2</v>
       </c>
@@ -1753,19 +1933,116 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.7430000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>5.4309999999999997E-2</v>
+      </c>
+      <c r="F113">
+        <v>7.1260000000000004E-2</v>
+      </c>
+      <c r="G113">
+        <v>2.8420000000000001E-2</v>
+      </c>
+      <c r="H113">
+        <v>0.18190999999999999</v>
+      </c>
+      <c r="J113">
+        <f>GEOMEAN(F112:H115)</f>
+        <v>4.0308820293427139E-2</v>
+      </c>
+      <c r="K113">
+        <f>STDEV(F112:H115)</f>
+        <v>0.19843031063266967</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5.5669999999999997E-2</v>
+      </c>
+      <c r="F114">
+        <v>0.62053000000000003</v>
+      </c>
+      <c r="G114">
+        <v>3.4970000000000001E-2</v>
+      </c>
+      <c r="H114">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>3</v>
+      </c>
+      <c r="K114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="F115">
+        <v>1.094E-2</v>
+      </c>
+      <c r="G115">
+        <v>1.421E-2</v>
+      </c>
+      <c r="H115">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="J115">
+        <f xml:space="preserve"> MIN(F112:H115)</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="K115">
+        <f>MAX(F112:H115)</f>
+        <v>0.62053000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>7.7410000000000007E-2</v>
+      </c>
+      <c r="F116">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="G116">
+        <v>1.421E-2</v>
+      </c>
+      <c r="H116">
+        <v>2.0109999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1777,125 +2054,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5.4309999999999997E-2</v>
-      </c>
-      <c r="F4">
-        <v>7.1260000000000004E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.8420000000000001E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.18190999999999999</v>
-      </c>
-      <c r="J4">
-        <f>GEOMEAN(F3:H6)</f>
-        <v>4.0308820293427139E-2</v>
-      </c>
-      <c r="K4">
-        <f>STDEV(F3:H6)</f>
-        <v>0.19843031063266967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5.5669999999999997E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.62053000000000003</v>
-      </c>
-      <c r="G5">
-        <v>3.4970000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>6.6E-3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8.0499999999999999E-3</v>
-      </c>
-      <c r="F6">
-        <v>1.094E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.421E-2</v>
-      </c>
-      <c r="H6">
-        <v>3.4250000000000003E-2</v>
-      </c>
-      <c r="J6">
-        <f xml:space="preserve"> MIN(F3:H6)</f>
-        <v>6.6E-3</v>
-      </c>
-      <c r="K6">
-        <f>MAX(F3:H6)</f>
-        <v>0.62053000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7.7410000000000007E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.0359999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>1.421E-2</v>
-      </c>
-      <c r="H7">
-        <v>2.0109999999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2094,10 +2272,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A2D85-F7E9-43E6-AD19-A17E7BFF00EF}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16620ED6-66F4-48C2-A910-297F606499BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F8BE2-B121-4ADC-8EF7-C512214E78CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,12 +101,38 @@
     <t>Cr = 0.7, F = 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0(35-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(37-11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(34-8)</t>
+  </si>
+  <si>
+    <t>0(18-8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +145,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,16 +178,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="貨幣" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,7 +932,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>503533</xdr:colOff>
+      <xdr:colOff>457813</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -2273,13 +2311,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A2D85-F7E9-43E6-AD19-A17E7BFF00EF}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2298,8 +2339,38 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F8BE2-B121-4ADC-8EF7-C512214E78CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E42F4-A823-44B6-8752-94A64093B701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>18,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ans = [0]*14, dim = 14 of 32, range = [0,1], popsize = 10, gen = 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training + pretrain model (generation)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,6 +1107,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>73863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAC0F3F-DCB1-4C5E-A13C-AB4EE1DC34C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22861" y="5730240"/>
+          <a:ext cx="3253740" cy="2535123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297181</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B37C53-DDC7-4114-AD71-0B68A8274FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299461" y="5737861"/>
+          <a:ext cx="2529840" cy="2889344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCA5409-3655-4200-9B9D-DDBAC7EB220C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="5753100"/>
+          <a:ext cx="5120640" cy="1401207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>184345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8B5B5C-9140-49A9-BB7A-9951A26145F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875021" y="7178040"/>
+          <a:ext cx="1851660" cy="245305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EA4E16-A24F-4A88-BA60-4DCF06E41BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5859780" y="7452360"/>
+          <a:ext cx="6553200" cy="248045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45305E77-6E95-4DDF-9ED1-D4963FE1C89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875020" y="7749540"/>
+          <a:ext cx="3200400" cy="854557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2111,7 +2383,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2167,12 +2439,12 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="L20">
-        <f>GEOMEAN(H19:J22)</f>
-        <v>1.4312294226929314E-3</v>
+        <f>GEOMEAN(H20:J23)</f>
+        <v>1.6760374269895837E-3</v>
       </c>
       <c r="M20">
-        <f>STDEV(H19:J22)</f>
-        <v>1.18284626126043E-2</v>
+        <f>STDEV(H20:J23)</f>
+        <v>1.028394199122048E-2</v>
       </c>
       <c r="P20">
         <v>8.1600000000000006E-3</v>
@@ -2184,12 +2456,12 @@
         <v>5.9800000000000001E-3</v>
       </c>
       <c r="T20">
-        <f>GEOMEAN(P19:R22)</f>
-        <v>5.4122872210219334E-3</v>
+        <f>GEOMEAN(P20:R23)</f>
+        <v>5.5490865599480089E-3</v>
       </c>
       <c r="U20">
-        <f>STDEV(P19:R22)</f>
-        <v>9.4548987890464026E-3</v>
+        <f>STDEV(P20:R23)</f>
+        <v>8.2667454938812578E-3</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -2247,11 +2519,11 @@
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="L22">
-        <f xml:space="preserve"> MIN(H19:J22)</f>
+        <f xml:space="preserve"> MIN(H20:J23)</f>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="M22">
-        <f>MAX(H19:J22)</f>
+        <f>MAX(H20:J23)</f>
         <v>3.1280000000000002E-2</v>
       </c>
       <c r="P22">
@@ -2264,11 +2536,11 @@
         <v>3.0339999999999999E-2</v>
       </c>
       <c r="T22">
-        <f xml:space="preserve"> MIN(P19:R22)</f>
+        <f xml:space="preserve"> MIN(P20:R23)</f>
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="U22">
-        <f>MAX(P19:R22)</f>
+        <f>MAX(P20:R23)</f>
         <v>3.0339999999999999E-2</v>
       </c>
     </row>
@@ -2311,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A2D85-F7E9-43E6-AD19-A17E7BFF00EF}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2372,6 +2644,73 @@
       <c r="H26">
         <v>31</v>
       </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="I48">
+        <v>22</v>
+      </c>
+      <c r="J48">
+        <v>27</v>
+      </c>
+      <c r="L48">
+        <f>GEOMEAN(H48:J51)</f>
+        <v>20.314156634750212</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>21</v>
+      </c>
+      <c r="I51">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\Documents\FIH\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E42F4-A823-44B6-8752-94A64093B701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Test4" sheetId="5" r:id="rId4"/>
     <sheet name="DE paper" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1636,10 +1635,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
@@ -2364,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2379,11 +2378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2582,11 +2581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A2D85-F7E9-43E6-AD19-A17E7BFF00EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2721,11 +2720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2740,6 +2739,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8.1229999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.16646</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ML實驗.xlsx
+++ b/ML實驗.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s830s\Documents\FIH\ACKLEY-Turing-UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DCD135-7312-4EB7-9BC5-8B0D2B2C7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Test4" sheetId="5" r:id="rId4"/>
     <sheet name="DE paper" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1635,11 +1636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+      <selection activeCell="E15" sqref="E15:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2363,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2581,7 +2582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -2720,48 +2721,181 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.1229999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2.1530000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.372E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.1000000000000003E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.66E-3</v>
+      </c>
+      <c r="E6">
+        <f>AVEDEV(A5:C8)</f>
+        <v>1.5267777777777774E-2</v>
+      </c>
+      <c r="F6">
+        <f>STDEV(A5:C8)</f>
+        <v>2.2822994916743437E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.8899999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1.093E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.2849999999999999E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.16646</v>
+        <v>2.3429999999999999E-2</v>
+      </c>
+      <c r="B8">
+        <v>1.5820000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.9029999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <f xml:space="preserve"> MIN(A5:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>MAX(A5:C8)</f>
+        <v>8.1229999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4.1050000000000003E-2</v>
+      </c>
+      <c r="B12">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="C12">
+        <v>3.2190000000000003E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.617E-2</v>
+      </c>
+      <c r="B13">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>2.9350000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <f>AVEDEV(A12:C15)</f>
+        <v>1.1042500000000002E-2</v>
+      </c>
+      <c r="F13">
+        <f>STDEV(A12:C15)</f>
+        <v>1.2644580675314845E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B14">
+        <v>3.2190000000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.9709999999999998E-2</v>
+      </c>
+      <c r="B15">
+        <v>3.2190000000000003E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E15">
+        <f xml:space="preserve"> MIN(A12:C15)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F15">
+        <f>MAX(A12:C15)</f>
+        <v>4.1050000000000003E-2</v>
       </c>
     </row>
   </sheetData>
